--- a/wndictpro/test/MobileSoftVn_WNDictPro_Kiem thu ung dung.xlsx
+++ b/wndictpro/test/MobileSoftVn_WNDictPro_Kiem thu ung dung.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Version 1.1" sheetId="1" r:id="rId1"/>
+    <sheet name="Version 1.3" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="136">
   <si>
     <t>STT</t>
   </si>
@@ -200,6 +200,233 @@
   </si>
   <si>
     <t>Thực hiện tra từ, hiển thị context menu, sau đó nhấn Home rồi quay lại ứng dụng. Vẫn thao tác bình thường với menu</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>Kiểm thử lần 1
+(Ngày 22/10/2013)</t>
+  </si>
+  <si>
+    <t>Kích nút Back để thoát ứng dụng. Hệ thống hiển thị hộp thoại confirm. Bạn nhấn thử 3 nút để thực hiện chức năng Rate, Exit hoặc ở lại ứng dụng.</t>
+  </si>
+  <si>
+    <t>Thực hiện tra một số từ, nhấn biểu tượng Back, Next để xem lại các từ đã tra. Nhấn và giữ hai phím này để vào màn hình History</t>
+  </si>
+  <si>
+    <t>Màn hình</t>
+  </si>
+  <si>
+    <t>Màn hình tra từ
+(Màn hình chính)</t>
+  </si>
+  <si>
+    <t>Hiển thị tip sử dụng ứng dụng</t>
+  </si>
+  <si>
+    <t>Phát âm</t>
+  </si>
+  <si>
+    <t>Xoay màn hình, thực hiện phát âm</t>
+  </si>
+  <si>
+    <t>Chức năng liên quan Favourite</t>
+  </si>
+  <si>
+    <t>Nhấn và giữ biểu tượng Star để vào giao diện Favourite</t>
+  </si>
+  <si>
+    <t>Chức năng liên quan History</t>
+  </si>
+  <si>
+    <t>Nhấn Back liên tục sẽ đến lúc bạn nhận được thông báo không thể xem từ trước đó</t>
+  </si>
+  <si>
+    <t>Nhấn Next liên tục sẽ đến lúc bạn nhận được thông báo không thể xem từ sau đó</t>
+  </si>
+  <si>
+    <t>Nhấn và giữ một trong hai nút này sẽ vào màn hình History. Xoay màn hình và thực hiện lại</t>
+  </si>
+  <si>
+    <t>Chức năng nhập từ bằng giọng nói</t>
+  </si>
+  <si>
+    <t>Thoát ứng dụng</t>
+  </si>
+  <si>
+    <t>Context menu</t>
+  </si>
+  <si>
+    <t>Các chức năng khác</t>
+  </si>
+  <si>
+    <t>Kích vào biểu tượng Help để xem trợ giúp ứng dụng</t>
+  </si>
+  <si>
+    <t>Nhấn và giữ vùng nghĩa để chọn từ. Kích vào iem trên menu để thực hiện thao tác phát âm, tra từ và dịch. Thực hiện ở cả màn hình xoay.</t>
+  </si>
+  <si>
+    <t>Màn hình dịch</t>
+  </si>
+  <si>
+    <t>Chọn ngôn ngữ dịch</t>
+  </si>
+  <si>
+    <t>Chuyển giao diện</t>
+  </si>
+  <si>
+    <t>Chọn ngôn ngữ nguồn và đích, chuyển sang form khác, quay lại vẫn giữ nguyên</t>
+  </si>
+  <si>
+    <t>Thoát ứng dụng rồi vào lại form này, thông tin ngôn ngữ vẫn đúng như đã chọn trước đó</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gạt sang trái hoặc phải để chuyển sang màn hình dịch. </t>
+  </si>
+  <si>
+    <t>Nhấn biểu tượng Swap để đổi giữa nguồn và đích</t>
+  </si>
+  <si>
+    <t>Nhập text và thực hiện dịch =&gt; Hệ thống hiển thị văn bản dịch</t>
+  </si>
+  <si>
+    <t>Chức năng phát âm</t>
+  </si>
+  <si>
+    <t>Nhập text và nhấn nút "Read". Hệ thống thực hiện phát âm</t>
+  </si>
+  <si>
+    <t>Xóa text và thực hiện phát âm lại. Hệ thống báo nhập text</t>
+  </si>
+  <si>
+    <t>Xóa màn hình dịch</t>
+  </si>
+  <si>
+    <t>Nhấn và giữ vào vùng dịch. Hệ thống xóa thông tin dịch</t>
+  </si>
+  <si>
+    <t>Nhấn vào biểu "Soft Menu" Biểu tượng bên phải) hoặc phím Menu cứng để bật Options Menu ứng dụng.</t>
+  </si>
+  <si>
+    <t>Màn hình Favourite</t>
+  </si>
+  <si>
+    <t>Bật 'Options Menu' chọn 'Your Favourite' hoặc nhấn và giữ icon Star để vào giao diện này</t>
+  </si>
+  <si>
+    <t>Nhấn biểu tượng Star để thêm từ đang tra vào Favourite. Nhấn lần nữa báo từ đã tồn tại</t>
+  </si>
+  <si>
+    <t>Xoay màn hình, thông tin vẫn giữ nguyên</t>
+  </si>
+  <si>
+    <t>Xem nghĩa</t>
+  </si>
+  <si>
+    <t>Chọn một từ để xem nghĩa. Hiển thị nghĩa.</t>
+  </si>
+  <si>
+    <t>Xoay màn hình vẫn giữ nguyên</t>
+  </si>
+  <si>
+    <t>Nhấn biểu tượng âm thanh để phát âm</t>
+  </si>
+  <si>
+    <t>Xoay màn hình rồi thực hiện lại</t>
+  </si>
+  <si>
+    <t>Xóa từ</t>
+  </si>
+  <si>
+    <t>Đóng giao diện</t>
+  </si>
+  <si>
+    <t>Nhấn Back để đóng giao diện</t>
+  </si>
+  <si>
+    <t>Xóa từ không đang hiển thị nghĩa =&gt; Từ bị xóa và thông tin nghĩa giữ nguyên</t>
+  </si>
+  <si>
+    <t>Xóa từ đang hiển thị nghĩa =&gt; Từ bị xóa và thông tin nghĩa cũng bị xóa</t>
+  </si>
+  <si>
+    <t>Xóa hết các từ =&gt; Các từ xóa hết và hiển thị Keyword not found</t>
+  </si>
+  <si>
+    <t>Vào giao diện</t>
+  </si>
+  <si>
+    <t>Màn hình History</t>
+  </si>
+  <si>
+    <t>Bật 'Options Menu' chọn 'History' hoặc nhấn và giữ icon Back, Next để vào giao diện này</t>
+  </si>
+  <si>
+    <t>Xem nghĩa từ</t>
+  </si>
+  <si>
+    <t>Chọn từ trên list =&gt; Hệ thống hiển thị nghĩa ở màn hình tra từ.</t>
+  </si>
+  <si>
+    <t>Màn hình Setting</t>
+  </si>
+  <si>
+    <t>Cấu hình Sound Volume</t>
+  </si>
+  <si>
+    <t>Bật Options Menu, chọn Setting</t>
+  </si>
+  <si>
+    <t>Cấu hình ngôn ngữ cho phát âm</t>
+  </si>
+  <si>
+    <t>Chọn mục Sound volume để thực hiện cấu hình. Có 5 mức, mặc định mức 5. Thực hiện thay đổi sau đó kiểm tra sự thay đổi bằng về giao diện chính và thực hiện phát âm</t>
+  </si>
+  <si>
+    <t>Chọn mục Pronunciation language để thực hiện cấu hình. Các ngôn ngữ hỗ trợ sẽ được hiển thị để người dùng chọn. Thực hiện thay đổi sau đó kiểm tra sự thay đổi bằng về giao diện chính và thực hiện phát âm</t>
+  </si>
+  <si>
+    <t>Cấu hình kích thước chữ hiển thị meaning</t>
+  </si>
+  <si>
+    <t>Chọn mục Font size để thực hiện cấu hình. Hỗ trợ từ 10 đến 20 với chênh lệch 02 mức một, mặc đinh 16. Thực hiện thay đổi sau đó kiểm tra sự thay đổi bằng về giao diện chính và xem nghĩa hiển thị</t>
+  </si>
+  <si>
+    <t>Cấu hình số từ lưu cho Favourite và History</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chọn mục Favourite và History để thực hiện cấu hình. </t>
+  </si>
+  <si>
+    <t>Tính năng chung ứng dụng</t>
+  </si>
+  <si>
+    <t>Giao diện hướng dẫn sử dụng ứng dụng</t>
+  </si>
+  <si>
+    <t>Nhấp biểu tượng Help hoặc bật Options Menu chọn Application Guide</t>
+  </si>
+  <si>
+    <t>Xem nội dung</t>
+  </si>
+  <si>
+    <t>Cuộn để xem nội dung</t>
+  </si>
+  <si>
+    <t>Nhấn vào link để xem mục tương ứng</t>
+  </si>
+  <si>
+    <t>Nhấn vào Some tips… để xem tip sử dụng nhanh ứng dụng</t>
+  </si>
+  <si>
+    <t>Nhấn biểu tượng Back To Top để lên trên cùng phần trợ giúp</t>
+  </si>
+  <si>
+    <t>Giao diện giới thiệu ứng dụng</t>
+  </si>
+  <si>
+    <t>Bật Options Menu chọn About</t>
   </si>
 </sst>
 </file>
@@ -318,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -359,6 +586,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -380,13 +622,73 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -685,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -698,13 +1000,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="21">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="4" spans="1:5">
       <c r="B4" s="7" t="s">
@@ -723,24 +1025,24 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
@@ -749,10 +1051,10 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="30">
-      <c r="A9" s="19">
+      <c r="A9" s="24">
         <v>1</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="24" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -764,8 +1066,8 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" ht="30">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
@@ -775,8 +1077,8 @@
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="60">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
@@ -786,8 +1088,8 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" ht="30">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
@@ -797,10 +1099,10 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="75">
-      <c r="A13" s="19">
+      <c r="A13" s="24">
         <v>2</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -812,8 +1114,8 @@
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="60">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
@@ -823,8 +1125,8 @@
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" ht="45">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
@@ -834,8 +1136,8 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" ht="45">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="1" t="s">
         <v>51</v>
       </c>
@@ -845,8 +1147,8 @@
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="30">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
@@ -856,10 +1158,10 @@
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" ht="45">
-      <c r="A18" s="16">
+      <c r="A18" s="21">
         <v>3</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -871,8 +1173,8 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="60">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="1" t="s">
         <v>25</v>
       </c>
@@ -882,8 +1184,8 @@
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="1" t="s">
         <v>26</v>
       </c>
@@ -893,8 +1195,8 @@
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="30">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="1" t="s">
         <v>52</v>
       </c>
@@ -904,8 +1206,8 @@
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" ht="45">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="1" t="s">
         <v>27</v>
       </c>
@@ -915,10 +1217,10 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" ht="45">
-      <c r="A23" s="16">
+      <c r="A23" s="21">
         <v>4</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -930,8 +1232,8 @@
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" ht="45">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="1" t="s">
         <v>29</v>
       </c>
@@ -956,10 +1258,10 @@
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" ht="60">
-      <c r="A26" s="16">
+      <c r="A26" s="21">
         <v>6</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -971,8 +1273,8 @@
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" ht="30">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="1" t="s">
         <v>53</v>
       </c>
@@ -982,8 +1284,8 @@
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" ht="45">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="1" t="s">
         <v>54</v>
       </c>
@@ -993,8 +1295,8 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" ht="45">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="1" t="s">
         <v>34</v>
       </c>
@@ -1004,8 +1306,8 @@
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" ht="45">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="1" t="s">
         <v>35</v>
       </c>
@@ -1015,10 +1317,10 @@
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" ht="45">
-      <c r="A31" s="16">
+      <c r="A31" s="21">
         <v>7</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1030,8 +1332,8 @@
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" ht="45">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="1" t="s">
         <v>37</v>
       </c>
@@ -1041,10 +1343,10 @@
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" ht="30">
-      <c r="A33" s="16">
+      <c r="A33" s="21">
         <v>8</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1056,8 +1358,8 @@
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" ht="45">
-      <c r="A34" s="18"/>
-      <c r="B34" s="24"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="1" t="s">
         <v>39</v>
       </c>
@@ -1078,10 +1380,10 @@
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" ht="75">
-      <c r="A36" s="16">
+      <c r="A36" s="21">
         <v>9</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="18" t="s">
         <v>40</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -1093,8 +1395,8 @@
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="17"/>
-      <c r="B37" s="25"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="19"/>
       <c r="C37" s="1" t="s">
         <v>43</v>
       </c>
@@ -1104,8 +1406,8 @@
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" ht="45">
-      <c r="A38" s="18"/>
-      <c r="B38" s="24"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="1" t="s">
         <v>60</v>
       </c>
@@ -1115,10 +1417,10 @@
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" ht="45">
-      <c r="A39" s="16">
+      <c r="A39" s="21">
         <v>10</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="18" t="s">
         <v>56</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -1130,8 +1432,8 @@
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" ht="45">
-      <c r="A40" s="18"/>
-      <c r="B40" s="24"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="1" t="s">
         <v>58</v>
       </c>
@@ -1156,10 +1458,10 @@
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="16">
+      <c r="A42" s="21">
         <v>12</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="21" t="s">
         <v>45</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1171,8 +1473,8 @@
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
       <c r="C43" s="1" t="s">
         <v>47</v>
       </c>
@@ -1182,8 +1484,8 @@
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
       <c r="C44" s="1" t="s">
         <v>48</v>
       </c>
@@ -1193,8 +1495,8 @@
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
       <c r="C45" s="1" t="s">
         <v>49</v>
       </c>
@@ -1303,15 +1605,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A33:A34"/>
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A9:A12"/>
@@ -1328,6 +1621,15 @@
     <mergeCell ref="B26:B30"/>
     <mergeCell ref="A26:A30"/>
     <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A33:A34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1336,13 +1638,1096 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:F80"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="68.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="21">
+      <c r="A2" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="C5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A7" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="26"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="27"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="24">
+        <v>1</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="24"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="45">
+      <c r="A11" s="24"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="24"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="45">
+      <c r="A13" s="24"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="45">
+      <c r="A14" s="24"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="30">
+      <c r="A15" s="24"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="30">
+      <c r="A16" s="24"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="24"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="24"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="24"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="30">
+      <c r="A20" s="24"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="24"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="30">
+      <c r="A22" s="24"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="30">
+      <c r="A23" s="24"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="30">
+      <c r="A24" s="24"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="56.25" customHeight="1">
+      <c r="A25" s="24"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="56.25" customHeight="1">
+      <c r="A26" s="24"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="30">
+      <c r="A27" s="24"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="56.25" customHeight="1">
+      <c r="A28" s="24"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="60.75" customHeight="1">
+      <c r="A29" s="24"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="30">
+      <c r="A30" s="24"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="24"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="24"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="30">
+      <c r="A33" s="24"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="30">
+      <c r="A34" s="24"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="21">
+        <v>2</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" ht="30">
+      <c r="A36" s="22"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="22"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" ht="30">
+      <c r="A38" s="22"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="22"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" ht="30">
+      <c r="A40" s="22"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" ht="30">
+      <c r="A41" s="22"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" ht="30">
+      <c r="A42" s="22"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="22"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="22"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="22"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" ht="30">
+      <c r="A46" s="22"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" ht="30">
+      <c r="A47" s="23"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" ht="30">
+      <c r="A48" s="21">
+        <v>3</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="22"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="22"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="22"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="22"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="22"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" ht="30">
+      <c r="A54" s="22"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="22"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="23"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" ht="30">
+      <c r="A57" s="21">
+        <v>4</v>
+      </c>
+      <c r="B57" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="22"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="22"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="22"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F60" s="15"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="23"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F61" s="15"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="21">
+        <v>5</v>
+      </c>
+      <c r="B62" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F62" s="15"/>
+    </row>
+    <row r="63" spans="1:6" ht="45">
+      <c r="A63" s="22"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F63" s="15"/>
+    </row>
+    <row r="64" spans="1:6" ht="45">
+      <c r="A64" s="22"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F64" s="15"/>
+    </row>
+    <row r="65" spans="1:6" ht="45">
+      <c r="A65" s="22"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F65" s="15"/>
+    </row>
+    <row r="66" spans="1:6" ht="30">
+      <c r="A66" s="23"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F66" s="15"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="24">
+        <v>6</v>
+      </c>
+      <c r="B67" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F67" s="15"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="24"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F68" s="15"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="24"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="50"/>
+      <c r="D69" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F69" s="15"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="24"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="50"/>
+      <c r="D70" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F70" s="15"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="24"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="49"/>
+      <c r="D71" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F71" s="15"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="24"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F72" s="15"/>
+    </row>
+    <row r="73" spans="1:6" ht="30" customHeight="1">
+      <c r="A73" s="24">
+        <v>7</v>
+      </c>
+      <c r="B73" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="C73" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F73" s="15"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="24"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F74" s="15"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="24"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F75" s="15"/>
+    </row>
+    <row r="76" spans="1:6" ht="30">
+      <c r="A76" s="21">
+        <v>8</v>
+      </c>
+      <c r="B76" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C76" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F76" s="2"/>
+    </row>
+    <row r="77" spans="1:6" ht="30">
+      <c r="A77" s="22"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F77" s="2"/>
+    </row>
+    <row r="78" spans="1:6" ht="45">
+      <c r="A78" s="22"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F78" s="2"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="22"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="50"/>
+      <c r="D79" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F79" s="2"/>
+    </row>
+    <row r="80" spans="1:6" ht="30">
+      <c r="A80" s="23"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="49"/>
+      <c r="D80" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F80" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="A76:A80"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B35:B47"/>
+    <mergeCell ref="A35:A47"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="A48:A56"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="B9:B34"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A9:A34"/>
+    <mergeCell ref="C14:C17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
